--- a/2025-03-03_4o-mini_feedback_sheets/overall_gen/Achalasia (type 1)_gen_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_gen/Achalasia (type 1)_gen_overall.xlsx
@@ -462,22 +462,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dysphagia for solids and liquids</t>
+          <t>Progressive dysphagia for both solids and liquids</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Patients with Achalasia often experience difficulty swallowing both solids and liquids due to esophageal motility issues.</t>
+          <t>This is a classic symptom of Achalasia (type 1) due to the failure of the lower esophageal sphincter to relax, affecting the passage of both solids and liquids.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal appetite</t>
+          <t>Dysphagia only for solids</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A normal appetite may suggest that the patient is not experiencing significant swallowing difficulties, which is inconsistent with Achalasia.</t>
+          <t>Dysphagia only for solids is more indicative of mechanical obstruction rather than Achalasia (type 1), which typically affects both solids and liquids.</t>
         </is>
       </c>
     </row>
@@ -489,17 +489,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Regurgitation is a common symptom in Achalasia, occurring due to the inability of the lower esophageal sphincter to relax.</t>
+          <t>Regurgitation is common in Achalasia (type 1) as food is not properly passed into the stomach and can be regurgitated back up the esophagus.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of regurgitation</t>
+          <t>Heartburn</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The lack of regurgitation indicates that the lower esophageal sphincter is functioning properly, which is contrary to Achalasia.</t>
+          <t>Heartburn is more commonly associated with gastroesophageal reflux disease (GERD) rather than Achalasia (type 1).</t>
         </is>
       </c>
     </row>
@@ -511,17 +511,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chest pain can occur in Achalasia due to esophageal spasms or distension.</t>
+          <t>Chest pain can occur due to esophageal spasm or distension, which is often seen in Achalasia (type 1).</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Symptoms improving with posture changes</t>
+          <t>Rapid onset of symptoms</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Improvement of symptoms with changes in posture may suggest a different esophageal motility disorder rather than Achalasia.</t>
+          <t>Achalasia (type 1) typically has a gradual onset, so a rapid onset of symptoms may suggest another condition.</t>
         </is>
       </c>
     </row>
@@ -533,39 +533,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Unintentional weight loss is frequently reported in Achalasia patients due to difficulty eating and maintaining nutrition.</t>
+          <t>Weight loss can occur due to difficulty in swallowing and reduced food intake, which is common in Achalasia (type 1).</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recent onset of symptoms</t>
+          <t>Improvement with proton pump inhibitors (PPIs)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Achalasia typically has a gradual onset; a recent onset may indicate an alternative diagnosis.</t>
+          <t>Improvement with PPIs suggests acid-related issues like GERD, not Achalasia (type 1).</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Onset of symptoms in young adulthood</t>
+          <t>Nocturnal cough</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Achalasia typically presents in young adults, making the age of onset a relevant factor in supporting the diagnosis.</t>
+          <t>Nocturnal cough can result from regurgitation and aspiration, which are associated with Achalasia (type 1).</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No history of weight loss</t>
+          <t>Presence of odynophagia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Absence of weight loss suggests that the patient is able to maintain nutrition, which is not typical in Achalasia.</t>
+          <t>Odynophagia, or painful swallowing, is more indicative of esophageal inflammation or infection rather than Achalasia (type 1).</t>
         </is>
       </c>
     </row>
@@ -613,12 +613,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of dysphagia (difficulty swallowing)</t>
+          <t>History of esophageal motility disorders</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dysphagia is a hallmark symptom of Achalasia (type 1) due to esophageal motility issues.</t>
+          <t>A past diagnosis of esophageal motility disorders is strongly associated with Achalasia, as it is a primary motility disorder.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -628,95 +628,95 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>GERD is more common than Achalasia and presents with similar symptoms, making it a more likely diagnosis.</t>
+          <t>GERD is less common in Achalasia due to the failure of the lower esophageal sphincter to relax.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Previous diagnosis of esophageal dilation or balloon dilation procedures</t>
+          <t>Previous treatment with pneumatic dilation</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Patients with Achalasia often undergo dilation procedures to alleviate symptoms, indicating a prior diagnosis.</t>
+          <t>Pneumatic dilation is a common treatment for Achalasia, indicating a previous diagnosis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No history of weight loss or malnutrition</t>
+          <t>Previous fundoplication surgery</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Significant weight loss is often associated with Achalasia due to difficulty eating, so its absence suggests a different diagnosis.</t>
+          <t>Fundoplication is typically performed for GERD, which is less likely in Achalasia.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of regurgitation of undigested food</t>
+          <t>History of botulinum toxin injections in the esophagus</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Regurgitation is common in Achalasia due to the inability of the esophagus to properly move food into the stomach.</t>
+          <t>Botulinum toxin injections are used to treat Achalasia by relaxing the lower esophageal sphincter.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Previous successful treatment for peptic ulcer disease</t>
+          <t>Long-term use of proton pump inhibitors (PPIs)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Successful treatment for peptic ulcers may indicate that symptoms are related to ulcers rather than Achalasia.</t>
+          <t>PPIs are used to treat GERD, which is less associated with Achalasia.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Use of medications for esophageal spasms</t>
+          <t>Past surgical myotomy</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Medications aimed at treating esophageal spasms may indicate underlying motility disorders like Achalasia.</t>
+          <t>Surgical myotomy is a definitive treatment for Achalasia, suggesting a previous diagnosis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No history of esophageal cancer or Barrett's esophagus</t>
+          <t>History of esophageal cancer</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of these conditions, which can mimic symptoms of Achalasia, suggests a lower likelihood of Achalasia.</t>
+          <t>Esophageal cancer can mimic Achalasia but is a distinct condition.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Family history of esophageal disorders</t>
+          <t>Long-term use of calcium channel blockers</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Genetic predisposition can play a role in Achalasia, making a family history relevant.</t>
+          <t>Calcium channel blockers can be used to manage symptoms of Achalasia by reducing lower esophageal sphincter pressure.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>History of normal endoscopic findings</t>
+          <t>Previous diagnosis of scleroderma</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Normal findings during endoscopy would argue against Achalasia, which typically shows characteristic changes.</t>
+          <t>Scleroderma can cause esophageal dysmotility but is a different condition from Achalasia.</t>
         </is>
       </c>
     </row>
@@ -764,110 +764,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Family history of esophageal disorders</t>
+          <t>Family history of achalasia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A family history of esophageal disorders may indicate a genetic predisposition to conditions like Achalasia, which can support the diagnosis.</t>
+          <t>Achalasia can have a genetic component, and a family history increases the likelihood of the condition.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No family history of esophageal conditions</t>
+          <t>No family history of achalasia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Absence of a family history of esophageal disorders suggests a lower likelihood of genetic predisposition to Achalasia.</t>
+          <t>The absence of a family history of achalasia reduces the likelihood of the condition being present.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of chronic gastroesophageal reflux disease (GERD)</t>
+          <t>Living in an area with high incidence of achalasia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Patients with chronic GERD may develop esophageal motility disorders, including Achalasia, making this a relevant finding.</t>
+          <t>Certain geographic regions have higher rates of achalasia, which may suggest environmental or genetic factors.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Active participation in regular health screenings</t>
+          <t>No family history of esophageal motility disorders</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Regular health screenings can lead to early detection of esophageal conditions, making Achalasia less likely in those who are proactive about their health.</t>
+          <t>Without a family history of related disorders, the likelihood of achalasia is reduced.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Social isolation or limited access to healthcare</t>
+          <t>Family history of esophageal motility disorders</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Limited access to healthcare can delay diagnosis and treatment of Achalasia, leading to a higher prevalence in certain populations.</t>
+          <t>A family history of related esophageal disorders can increase the likelihood of achalasia.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No history of significant weight loss or malnutrition</t>
+          <t>Living in an area with low incidence of achalasia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Significant weight loss or malnutrition is often associated with Achalasia due to difficulty swallowing; absence of these symptoms suggests a lower likelihood of the condition.</t>
+          <t>Residing in a region with low incidence suggests a lower likelihood of developing achalasia.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Occupation involving high stress or irregular eating habits</t>
+          <t>Genetic predisposition to esophageal disorders</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>High stress and irregular eating can exacerbate esophageal motility issues, potentially leading to Achalasia.</t>
+          <t>Genetic factors can predispose individuals to achalasia, making this a supportive finding.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engagement in a balanced diet and healthy lifestyle</t>
+          <t>No genetic predisposition to esophageal disorders</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A balanced diet and healthy lifestyle can reduce the risk of developing esophageal motility disorders, including Achalasia.</t>
+          <t>Lack of genetic predisposition decreases the probability of having achalasia.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of smoking</t>
+          <t>Family history of autoimmune diseases</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Smoking has been associated with various esophageal conditions, including Achalasia, making it a relevant risk factor.</t>
+          <t>Achalasia has been associated with autoimmune processes, and a family history of autoimmune diseases may increase risk.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No history of autoimmune diseases</t>
+          <t>No family history of autoimmune diseases</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Certain autoimmune diseases can affect esophageal motility; absence of these conditions may indicate a lower risk for Achalasia.</t>
+          <t>The absence of autoimmune diseases in the family history reduces the risk of achalasia.</t>
         </is>
       </c>
     </row>
@@ -915,22 +915,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dysphagia (difficulty swallowing)</t>
+          <t>Weight loss</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dysphagia is a hallmark symptom of Achalasia (type 1) due to the inability of the lower esophageal sphincter to relax, leading to food obstruction.</t>
+          <t>Weight loss is common in achalasia due to difficulty swallowing and reduced caloric intake.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal vital signs</t>
+          <t>Normal esophageal motility on physical exam</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Normal vital signs may indicate that there is no significant systemic illness or acute distress, which is less common in advanced Achalasia (type 1).</t>
+          <t>Normal esophageal motility would be inconsistent with achalasia, which is characterized by impaired motility.</t>
         </is>
       </c>
     </row>
@@ -942,83 +942,83 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Regurgitation occurs frequently in Achalasia (type 1) as food accumulates in the esophagus due to impaired peristalsis and sphincter relaxation.</t>
+          <t>Regurgitation of undigested food is a classic symptom of achalasia due to esophageal retention.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of esophageal distension on physical exam</t>
+          <t>Presence of gastric air bubble on abdominal exam</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A lack of esophageal distension suggests that there is no significant obstruction or accumulation of food, which is typically seen in Achalasia (type 1).</t>
+          <t>A normal gastric air bubble suggests normal passage of air and food into the stomach, which is unlikely in achalasia.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Weight loss</t>
+          <t>Absence of gastric air bubble on abdominal exam</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Weight loss is common in patients with Achalasia (type 1) due to difficulty eating and maintaining adequate nutrition.</t>
+          <t>The absence of a gastric air bubble can indicate esophageal obstruction, which is consistent with achalasia.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal abdominal exam</t>
+          <t>No weight loss</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A normal abdominal exam indicates no signs of complications such as obstruction or inflammation, which would be expected in Achalasia (type 1).</t>
+          <t>The absence of weight loss suggests adequate nutritional intake, which is less likely in achalasia.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Halitosis (bad breath)</t>
+          <t>Halitosis</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Halitosis can occur in Achalasia (type 1) due to stagnant food in the esophagus, leading to bacterial overgrowth and odor.</t>
+          <t>Halitosis can occur due to food stasis in the esophagus, which is common in achalasia.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No signs of dehydration</t>
+          <t>No regurgitation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Absence of dehydration suggests that the patient is able to maintain fluid intake, which is less likely in patients with significant Achalasia (type 1) symptoms.</t>
+          <t>The absence of regurgitation indicates normal esophageal clearance, which is not typical in achalasia.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Chest pain or discomfort</t>
+          <t>Dysphagia to both solids and liquids</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chest pain can be present in Achalasia (type 1) as a result of esophageal spasms or the sensation of food obstruction.</t>
+          <t>Dysphagia to both solids and liquids is a hallmark of achalasia, distinguishing it from other causes of dysphagia.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Normal weight for age and height</t>
+          <t>Normal breath odor</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Maintaining a normal weight suggests that the patient is not experiencing the significant weight loss typically associated with Achalasia (type 1).</t>
+          <t>Normal breath odor suggests no food stasis in the esophagus, which is contrary to what is expected in achalasia.</t>
         </is>
       </c>
     </row>
@@ -1066,110 +1066,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Esophageal manometry showing elevated resting lower esophageal sphincter (LES) pressure</t>
+          <t>Esophageal manometry showing aperistalsis and elevated lower esophageal sphincter (LES) pressure</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This finding is highly specific for Achalasia (type 1) as it indicates impaired relaxation of the LES, a hallmark of the condition.</t>
+          <t>This is the hallmark finding for Achalasia (type 1), indicating failure of the esophagus to properly move food toward the stomach.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal esophageal manometry results</t>
+          <t>Normal esophageal manometry</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Normal results would indicate that the LES is functioning properly, making Achalasia (type 1) unlikely.</t>
+          <t>Normal manometry results would strongly suggest against Achalasia, as the condition is characterized by specific motility abnormalities.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Barium swallow study showing dilated esophagus with a narrow lower esophageal sphincter</t>
+          <t>Barium swallow test showing bird-beak appearance</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>This imaging finding is characteristic of Achalasia (type 1), demonstrating the classic 'bird-beak' appearance due to obstruction at the LES.</t>
+          <t>The bird-beak appearance is highly specific for Achalasia, indicating narrowing at the gastroesophageal junction.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Barium swallow study showing normal esophageal motility</t>
+          <t>Barium swallow test showing normal esophageal transit</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Normal motility on barium swallow suggests that there is no obstruction or dysmotility, which would argue against Achalasia (type 1).</t>
+          <t>Normal transit on a barium swallow test indicates that the esophagus is functioning properly, which is not consistent with Achalasia.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Endoscopy revealing a dilated esophagus with food retention</t>
+          <t>Esophagogastroduodenoscopy (EGD) showing dilated esophagus with retained food</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Food retention in the esophagus during endoscopy supports the diagnosis of Achalasia (type 1) due to the inability to properly move food into the stomach.</t>
+          <t>A dilated esophagus with retained food suggests impaired esophageal motility, consistent with Achalasia.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Endoscopy revealing no significant abnormalities</t>
+          <t>Esophagogastroduodenoscopy (EGD) showing normal esophageal mucosa and motility</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of abnormalities during endoscopy would suggest that there is no structural issue like Achalasia (type 1).</t>
+          <t>Normal findings on EGD would argue against Achalasia, as the condition typically shows esophageal dilation and retained food.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Esophageal pressure topography showing incomplete LES relaxation</t>
+          <t>Timed barium esophagram showing delayed esophageal emptying</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>This finding indicates a failure of the LES to relax during swallowing, which is a key feature of Achalasia (type 1).</t>
+          <t>Delayed emptying on a timed barium esophagram is indicative of esophageal motility disorders like Achalasia.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Negative results for esophageal cancer on biopsy</t>
+          <t>High-resolution manometry (HRM) showing normal peristalsis</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>While not directly related, the absence of malignancy can help rule out secondary causes of esophageal obstruction, making Achalasia (type 1) less likely.</t>
+          <t>Normal peristalsis on HRM would be inconsistent with Achalasia, which is characterized by absent peristalsis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Imaging showing esophageal dilation with decreased peristalsis</t>
+          <t>High-resolution manometry (HRM) showing absence of peristalsis</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Decreased peristalsis and esophageal dilation are consistent with Achalasia (type 1), as the esophagus cannot effectively move food down.</t>
+          <t>HRM is a sensitive test for detecting the absence of peristalsis, a key feature of Achalasia.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Normal imaging of the esophagus</t>
+          <t>Timed barium esophagram showing normal esophageal emptying</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Normal imaging findings would indicate that there is no dilation or obstruction, which are key features of Achalasia (type 1).</t>
+          <t>Normal emptying on a timed barium esophagram suggests that esophageal motility is intact, which is not typical of Achalasia.</t>
         </is>
       </c>
     </row>
